--- a/exames.xlsx
+++ b/exames.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\bigFarma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C740FF43-74FF-40EB-BABA-2C3715B5656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6909D-2301-4E14-A0CD-159E988148AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="817">
   <si>
     <t>TEMPO DE PROTROMBINA</t>
   </si>
@@ -2516,6 +2516,12 @@
   <si>
     <t>URI EAS</t>
   </si>
+  <si>
+    <t>HOMÔNIMO FOLÍCULO ESTIMULANTE</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
 </sst>
 </file>
 
@@ -2524,7 +2530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2551,6 +2557,13 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2603,7 +2616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2654,6 +2667,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2960,21 +2979,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:D413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="87.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +3005,7 @@
       </c>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>424</v>
       </c>
@@ -3000,7 +3019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>394</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>814</v>
       </c>
@@ -3028,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>94</v>
       </c>
@@ -3042,7 +3061,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>96</v>
       </c>
@@ -3056,7 +3075,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -3070,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>173</v>
       </c>
@@ -3084,7 +3103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>177</v>
       </c>
@@ -3098,7 +3117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>181</v>
       </c>
@@ -3112,7 +3131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>257</v>
       </c>
@@ -3126,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>215</v>
       </c>
@@ -3140,7 +3159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>221</v>
       </c>
@@ -3154,7 +3173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>223</v>
       </c>
@@ -3168,7 +3187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>227</v>
       </c>
@@ -3182,7 +3201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>356</v>
       </c>
@@ -3196,7 +3215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>276</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>273</v>
       </c>
@@ -3224,7 +3243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>280</v>
       </c>
@@ -3238,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>197</v>
       </c>
@@ -3252,7 +3271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>201</v>
       </c>
@@ -3266,7 +3285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>338</v>
       </c>
@@ -3280,7 +3299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>382</v>
       </c>
@@ -3294,7 +3313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>199</v>
       </c>
@@ -3308,7 +3327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>282</v>
       </c>
@@ -3322,7 +3341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>366</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>286</v>
       </c>
@@ -3350,7 +3369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>213</v>
       </c>
@@ -3364,7 +3383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>354</v>
       </c>
@@ -3378,7 +3397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>310</v>
       </c>
@@ -3392,7 +3411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>312</v>
       </c>
@@ -3406,7 +3425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>430</v>
       </c>
@@ -3420,7 +3439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>431</v>
       </c>
@@ -3434,7 +3453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>432</v>
       </c>
@@ -3448,7 +3467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>433</v>
       </c>
@@ -3462,7 +3481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>434</v>
       </c>
@@ -3476,7 +3495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>436</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>340</v>
       </c>
@@ -3518,7 +3537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>344</v>
       </c>
@@ -3532,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>419</v>
       </c>
@@ -3546,7 +3565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>420</v>
       </c>
@@ -3560,7 +3579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>421</v>
       </c>
@@ -3574,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>422</v>
       </c>
@@ -3588,7 +3607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>82</v>
       </c>
@@ -3602,7 +3621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>84</v>
       </c>
@@ -3616,7 +3635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>86</v>
       </c>
@@ -3630,7 +3649,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -3644,7 +3663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>90</v>
       </c>
@@ -3658,7 +3677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>92</v>
       </c>
@@ -3672,7 +3691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>98</v>
       </c>
@@ -3686,7 +3705,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>100</v>
       </c>
@@ -3700,7 +3719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>102</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
@@ -3728,7 +3747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>106</v>
       </c>
@@ -3742,7 +3761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>108</v>
       </c>
@@ -3756,7 +3775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -3770,7 +3789,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
@@ -3784,7 +3803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>113</v>
       </c>
@@ -3798,7 +3817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>114</v>
       </c>
@@ -3812,7 +3831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>115</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>117</v>
       </c>
@@ -3840,7 +3859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>119</v>
       </c>
@@ -3854,7 +3873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>121</v>
       </c>
@@ -3868,7 +3887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>123</v>
       </c>
@@ -3882,7 +3901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>125</v>
       </c>
@@ -3896,7 +3915,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>127</v>
       </c>
@@ -3910,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>129</v>
       </c>
@@ -3924,7 +3943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>131</v>
       </c>
@@ -3938,7 +3957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -3952,7 +3971,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>135</v>
       </c>
@@ -3966,7 +3985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>137</v>
       </c>
@@ -3980,7 +3999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>139</v>
       </c>
@@ -3994,7 +4013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>141</v>
       </c>
@@ -4008,7 +4027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>143</v>
       </c>
@@ -4022,7 +4041,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>145</v>
       </c>
@@ -4036,7 +4055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>147</v>
       </c>
@@ -4050,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>149</v>
       </c>
@@ -4064,7 +4083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>153</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>155</v>
       </c>
@@ -4092,7 +4111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>157</v>
       </c>
@@ -4106,7 +4125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>159</v>
       </c>
@@ -4120,7 +4139,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -4134,7 +4153,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>163</v>
       </c>
@@ -4148,7 +4167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>167</v>
       </c>
@@ -4162,7 +4181,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>169</v>
       </c>
@@ -4176,7 +4195,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>183</v>
       </c>
@@ -4190,7 +4209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>185</v>
       </c>
@@ -4204,7 +4223,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>187</v>
       </c>
@@ -4218,7 +4237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>189</v>
       </c>
@@ -4232,7 +4251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>191</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>193</v>
       </c>
@@ -4260,7 +4279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>195</v>
       </c>
@@ -4274,7 +4293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>203</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>205</v>
       </c>
@@ -4302,7 +4321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>207</v>
       </c>
@@ -4316,7 +4335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>209</v>
       </c>
@@ -4330,7 +4349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>211</v>
       </c>
@@ -4344,7 +4363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>217</v>
       </c>
@@ -4358,7 +4377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>225</v>
       </c>
@@ -4372,7 +4391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>229</v>
       </c>
@@ -4386,7 +4405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>233</v>
       </c>
@@ -4400,7 +4419,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>235</v>
       </c>
@@ -4414,7 +4433,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>239</v>
       </c>
@@ -4428,7 +4447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>241</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>243</v>
       </c>
@@ -4456,7 +4475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>245</v>
       </c>
@@ -4470,7 +4489,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>247</v>
       </c>
@@ -4484,7 +4503,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>249</v>
       </c>
@@ -4498,7 +4517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>251</v>
       </c>
@@ -4512,7 +4531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>253</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>255</v>
       </c>
@@ -4540,7 +4559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>261</v>
       </c>
@@ -4554,7 +4573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>263</v>
       </c>
@@ -4568,7 +4587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>267</v>
       </c>
@@ -4582,7 +4601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>269</v>
       </c>
@@ -4596,7 +4615,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>271</v>
       </c>
@@ -4610,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>274</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>278</v>
       </c>
@@ -4638,7 +4657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>284</v>
       </c>
@@ -4652,7 +4671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>288</v>
       </c>
@@ -4666,7 +4685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>290</v>
       </c>
@@ -4680,7 +4699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>292</v>
       </c>
@@ -4694,7 +4713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>294</v>
       </c>
@@ -4708,7 +4727,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>296</v>
       </c>
@@ -4722,7 +4741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>298</v>
       </c>
@@ -4736,7 +4755,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>302</v>
       </c>
@@ -4750,7 +4769,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>304</v>
       </c>
@@ -4764,7 +4783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>308</v>
       </c>
@@ -4778,7 +4797,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>316</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>318</v>
       </c>
@@ -4806,7 +4825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>320</v>
       </c>
@@ -4820,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>322</v>
       </c>
@@ -4834,7 +4853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>324</v>
       </c>
@@ -4848,7 +4867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>326</v>
       </c>
@@ -4862,7 +4881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>330</v>
       </c>
@@ -4876,7 +4895,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>332</v>
       </c>
@@ -4890,7 +4909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>334</v>
       </c>
@@ -4904,7 +4923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>336</v>
       </c>
@@ -4918,7 +4937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>348</v>
       </c>
@@ -4932,7 +4951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>350</v>
       </c>
@@ -4946,7 +4965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>352</v>
       </c>
@@ -4960,7 +4979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>358</v>
       </c>
@@ -4974,7 +4993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>360</v>
       </c>
@@ -4988,7 +5007,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>362</v>
       </c>
@@ -5002,7 +5021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>364</v>
       </c>
@@ -5016,7 +5035,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>368</v>
       </c>
@@ -5030,7 +5049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>370</v>
       </c>
@@ -5044,7 +5063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>372</v>
       </c>
@@ -5058,7 +5077,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>374</v>
       </c>
@@ -5072,7 +5091,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>376</v>
       </c>
@@ -5086,7 +5105,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>378</v>
       </c>
@@ -5100,7 +5119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>380</v>
       </c>
@@ -5114,7 +5133,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>384</v>
       </c>
@@ -5128,7 +5147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>386</v>
       </c>
@@ -5142,7 +5161,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>388</v>
       </c>
@@ -5156,7 +5175,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>390</v>
       </c>
@@ -5170,7 +5189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>392</v>
       </c>
@@ -5184,7 +5203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>395</v>
       </c>
@@ -5198,7 +5217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>397</v>
       </c>
@@ -5212,7 +5231,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>409</v>
       </c>
@@ -5226,7 +5245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>411</v>
       </c>
@@ -5240,7 +5259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>413</v>
       </c>
@@ -5254,7 +5273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>415</v>
       </c>
@@ -5268,7 +5287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>417</v>
       </c>
@@ -5282,7 +5301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>423</v>
       </c>
@@ -5296,7 +5315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>425</v>
       </c>
@@ -5310,7 +5329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>426</v>
       </c>
@@ -5324,7 +5343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>427</v>
       </c>
@@ -5338,7 +5357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>428</v>
       </c>
@@ -5352,7 +5371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>439</v>
       </c>
@@ -5366,7 +5385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>441</v>
       </c>
@@ -5380,7 +5399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>443</v>
       </c>
@@ -5394,7 +5413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>445</v>
       </c>
@@ -5408,7 +5427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>447</v>
       </c>
@@ -5422,7 +5441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>449</v>
       </c>
@@ -5436,7 +5455,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>451</v>
       </c>
@@ -5450,7 +5469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>453</v>
       </c>
@@ -5464,7 +5483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>455</v>
       </c>
@@ -5478,7 +5497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>457</v>
       </c>
@@ -5492,7 +5511,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>459</v>
       </c>
@@ -5506,7 +5525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>461</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>463</v>
       </c>
@@ -5534,7 +5553,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>465</v>
       </c>
@@ -5548,7 +5567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>467</v>
       </c>
@@ -5562,7 +5581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>469</v>
       </c>
@@ -5576,7 +5595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>471</v>
       </c>
@@ -5590,7 +5609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>473</v>
       </c>
@@ -5604,7 +5623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>475</v>
       </c>
@@ -5618,7 +5637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>477</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>479</v>
       </c>
@@ -5646,7 +5665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="3" t="s">
         <v>481</v>
@@ -5658,7 +5677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>482</v>
       </c>
@@ -5672,7 +5691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>484</v>
       </c>
@@ -5686,7 +5705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>486</v>
       </c>
@@ -5700,7 +5719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>488</v>
       </c>
@@ -5714,7 +5733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>490</v>
       </c>
@@ -5728,7 +5747,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>492</v>
       </c>
@@ -5742,7 +5761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>494</v>
       </c>
@@ -5756,7 +5775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>496</v>
       </c>
@@ -5770,7 +5789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>498</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>500</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>502</v>
       </c>
@@ -5812,7 +5831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>504</v>
       </c>
@@ -5826,7 +5845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>506</v>
       </c>
@@ -5840,7 +5859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>508</v>
       </c>
@@ -5854,7 +5873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>510</v>
       </c>
@@ -5868,7 +5887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>512</v>
       </c>
@@ -5882,7 +5901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>514</v>
       </c>
@@ -5896,7 +5915,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>17</v>
       </c>
@@ -5910,7 +5929,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>18</v>
       </c>
@@ -5924,7 +5943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>19</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>21</v>
       </c>
@@ -5952,7 +5971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>22</v>
       </c>
@@ -5966,7 +5985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>30</v>
       </c>
@@ -5980,7 +5999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>31</v>
       </c>
@@ -5994,7 +6013,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>32</v>
       </c>
@@ -6008,7 +6027,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>33</v>
       </c>
@@ -6022,7 +6041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>34</v>
       </c>
@@ -6036,7 +6055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>36</v>
       </c>
@@ -6050,7 +6069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>37</v>
       </c>
@@ -6064,7 +6083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>40</v>
       </c>
@@ -6078,7 +6097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>42</v>
       </c>
@@ -6092,7 +6111,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>44</v>
       </c>
@@ -6106,7 +6125,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>46</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>49</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>50</v>
       </c>
@@ -6148,7 +6167,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>53</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>54</v>
       </c>
@@ -6176,7 +6195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>56</v>
       </c>
@@ -6190,7 +6209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>57</v>
       </c>
@@ -6204,7 +6223,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>60</v>
       </c>
@@ -6218,7 +6237,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>62</v>
       </c>
@@ -6232,7 +6251,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>63</v>
       </c>
@@ -6246,7 +6265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>67</v>
       </c>
@@ -6260,7 +6279,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>68</v>
       </c>
@@ -6274,7 +6293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>70</v>
       </c>
@@ -6288,7 +6307,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>72</v>
       </c>
@@ -6302,7 +6321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>74</v>
       </c>
@@ -6316,7 +6335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>516</v>
       </c>
@@ -6330,7 +6349,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>518</v>
       </c>
@@ -6344,7 +6363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>520</v>
       </c>
@@ -6358,7 +6377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>522</v>
       </c>
@@ -6372,7 +6391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>524</v>
       </c>
@@ -6386,7 +6405,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>526</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>528</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>530</v>
       </c>
@@ -6428,7 +6447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>532</v>
       </c>
@@ -6442,7 +6461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>534</v>
       </c>
@@ -6456,7 +6475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>536</v>
       </c>
@@ -6470,7 +6489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>538</v>
       </c>
@@ -6484,7 +6503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>540</v>
       </c>
@@ -6498,7 +6517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>542</v>
       </c>
@@ -6512,7 +6531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>544</v>
       </c>
@@ -6526,7 +6545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>546</v>
       </c>
@@ -6540,7 +6559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>548</v>
       </c>
@@ -6554,7 +6573,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>550</v>
       </c>
@@ -6568,7 +6587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>552</v>
       </c>
@@ -6582,7 +6601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>554</v>
       </c>
@@ -6596,7 +6615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>556</v>
       </c>
@@ -6610,7 +6629,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>558</v>
       </c>
@@ -6624,7 +6643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>559</v>
       </c>
@@ -6638,7 +6657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>561</v>
       </c>
@@ -6652,7 +6671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>563</v>
       </c>
@@ -6666,7 +6685,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>565</v>
       </c>
@@ -6680,7 +6699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>567</v>
       </c>
@@ -6694,7 +6713,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>569</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>571</v>
       </c>
@@ -6722,7 +6741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>573</v>
       </c>
@@ -6736,7 +6755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>575</v>
       </c>
@@ -6750,7 +6769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>577</v>
       </c>
@@ -6764,7 +6783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>579</v>
       </c>
@@ -6778,7 +6797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>581</v>
       </c>
@@ -6792,7 +6811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>583</v>
       </c>
@@ -6806,7 +6825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>585</v>
       </c>
@@ -6820,7 +6839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>587</v>
       </c>
@@ -6834,7 +6853,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>589</v>
       </c>
@@ -6848,7 +6867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>591</v>
       </c>
@@ -6862,7 +6881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>593</v>
       </c>
@@ -6876,7 +6895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>595</v>
       </c>
@@ -6890,7 +6909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>597</v>
       </c>
@@ -6904,7 +6923,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>599</v>
       </c>
@@ -6918,7 +6937,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>601</v>
       </c>
@@ -6932,7 +6951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>603</v>
       </c>
@@ -6946,7 +6965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>605</v>
       </c>
@@ -6960,7 +6979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>607</v>
       </c>
@@ -6974,7 +6993,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>609</v>
       </c>
@@ -6988,7 +7007,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>611</v>
       </c>
@@ -7002,7 +7021,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>613</v>
       </c>
@@ -7016,7 +7035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>615</v>
       </c>
@@ -7030,7 +7049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>617</v>
       </c>
@@ -7044,7 +7063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>619</v>
       </c>
@@ -7058,7 +7077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>621</v>
       </c>
@@ -7072,7 +7091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>623</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>625</v>
       </c>
@@ -7100,7 +7119,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>627</v>
       </c>
@@ -7114,7 +7133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>629</v>
       </c>
@@ -7128,7 +7147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>631</v>
       </c>
@@ -7142,7 +7161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>633</v>
       </c>
@@ -7156,7 +7175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>635</v>
       </c>
@@ -7170,7 +7189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>637</v>
       </c>
@@ -7184,7 +7203,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>639</v>
       </c>
@@ -7198,7 +7217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>641</v>
       </c>
@@ -7212,7 +7231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>643</v>
       </c>
@@ -7226,7 +7245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>645</v>
       </c>
@@ -7240,7 +7259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>647</v>
       </c>
@@ -7254,7 +7273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>649</v>
       </c>
@@ -7268,7 +7287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>651</v>
       </c>
@@ -7282,7 +7301,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>653</v>
       </c>
@@ -7296,7 +7315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>655</v>
       </c>
@@ -7310,7 +7329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>657</v>
       </c>
@@ -7324,7 +7343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>659</v>
       </c>
@@ -7338,7 +7357,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>661</v>
       </c>
@@ -7352,7 +7371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="3" t="s">
         <v>663</v>
@@ -7364,7 +7383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>664</v>
       </c>
@@ -7378,7 +7397,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>666</v>
       </c>
@@ -7392,7 +7411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>668</v>
       </c>
@@ -7406,7 +7425,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>670</v>
       </c>
@@ -7420,7 +7439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>672</v>
       </c>
@@ -7434,7 +7453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>674</v>
       </c>
@@ -7448,7 +7467,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>676</v>
       </c>
@@ -7462,7 +7481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>678</v>
       </c>
@@ -7476,7 +7495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>680</v>
       </c>
@@ -7490,7 +7509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>682</v>
       </c>
@@ -7504,7 +7523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>684</v>
       </c>
@@ -7518,7 +7537,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>686</v>
       </c>
@@ -7532,7 +7551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>688</v>
       </c>
@@ -7546,7 +7565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>690</v>
       </c>
@@ -7560,7 +7579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>692</v>
       </c>
@@ -7574,7 +7593,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>694</v>
       </c>
@@ -7588,7 +7607,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>696</v>
       </c>
@@ -7602,7 +7621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>698</v>
       </c>
@@ -7616,7 +7635,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>700</v>
       </c>
@@ -7630,7 +7649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>702</v>
       </c>
@@ -7644,7 +7663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>706</v>
       </c>
@@ -7658,7 +7677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>708</v>
       </c>
@@ -7672,7 +7691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>710</v>
       </c>
@@ -7686,7 +7705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>712</v>
       </c>
@@ -7700,7 +7719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>714</v>
       </c>
@@ -7714,7 +7733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>716</v>
       </c>
@@ -7728,7 +7747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>718</v>
       </c>
@@ -7742,7 +7761,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>720</v>
       </c>
@@ -7756,7 +7775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>722</v>
       </c>
@@ -7770,7 +7789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>724</v>
       </c>
@@ -7784,7 +7803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>726</v>
       </c>
@@ -7798,7 +7817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>728</v>
       </c>
@@ -7812,7 +7831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>730</v>
       </c>
@@ -7826,7 +7845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>736</v>
       </c>
@@ -7840,7 +7859,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>738</v>
       </c>
@@ -7854,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>740</v>
       </c>
@@ -7868,7 +7887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>744</v>
       </c>
@@ -7882,7 +7901,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>746</v>
       </c>
@@ -7896,7 +7915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>748</v>
       </c>
@@ -7910,7 +7929,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>750</v>
       </c>
@@ -7924,7 +7943,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>752</v>
       </c>
@@ -7938,7 +7957,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>754</v>
       </c>
@@ -7952,7 +7971,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>756</v>
       </c>
@@ -7966,7 +7985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>758</v>
       </c>
@@ -7980,7 +7999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>760</v>
       </c>
@@ -7994,7 +8013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>744</v>
       </c>
@@ -8008,7 +8027,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>763</v>
       </c>
@@ -8022,7 +8041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>765</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>767</v>
       </c>
@@ -8050,7 +8069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>771</v>
       </c>
@@ -8064,7 +8083,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>773</v>
       </c>
@@ -8078,7 +8097,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>775</v>
       </c>
@@ -8092,7 +8111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>777</v>
       </c>
@@ -8106,7 +8125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>779</v>
       </c>
@@ -8120,7 +8139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>813</v>
       </c>
@@ -8134,7 +8153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>781</v>
       </c>
@@ -8148,7 +8167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>783</v>
       </c>
@@ -8162,7 +8181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>785</v>
       </c>
@@ -8176,7 +8195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>787</v>
       </c>
@@ -8190,7 +8209,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>789</v>
       </c>
@@ -8204,7 +8223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>791</v>
       </c>
@@ -8218,7 +8237,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>793</v>
       </c>
@@ -8232,7 +8251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>795</v>
       </c>
@@ -8246,7 +8265,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>797</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>799</v>
       </c>
@@ -8274,7 +8293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>801</v>
       </c>
@@ -8288,7 +8307,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>802</v>
       </c>
@@ -8302,7 +8321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>803</v>
       </c>
@@ -8316,7 +8335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>80</v>
       </c>
@@ -8330,7 +8349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>81</v>
       </c>
@@ -8344,7 +8363,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>399</v>
       </c>
@@ -8358,7 +8377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>401</v>
       </c>
@@ -8372,7 +8391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>403</v>
       </c>
@@ -8386,7 +8405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>405</v>
       </c>
@@ -8400,7 +8419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>407</v>
       </c>
@@ -8414,7 +8433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>704</v>
       </c>
@@ -8428,7 +8447,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>342</v>
       </c>
@@ -8442,7 +8461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>151</v>
       </c>
@@ -8456,7 +8475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>165</v>
       </c>
@@ -8470,7 +8489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>175</v>
       </c>
@@ -8484,7 +8503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>179</v>
       </c>
@@ -8498,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>219</v>
       </c>
@@ -8512,7 +8531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>231</v>
       </c>
@@ -8526,7 +8545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>237</v>
       </c>
@@ -8540,7 +8559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>259</v>
       </c>
@@ -8554,7 +8573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>265</v>
       </c>
@@ -8568,7 +8587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>300</v>
       </c>
@@ -8582,7 +8601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>306</v>
       </c>
@@ -8596,7 +8615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>314</v>
       </c>
@@ -8610,7 +8629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>328</v>
       </c>
@@ -8624,7 +8643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>346</v>
       </c>
@@ -8638,7 +8657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>732</v>
       </c>
@@ -8652,7 +8671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>734</v>
       </c>
@@ -8666,7 +8685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>769</v>
       </c>
@@ -8680,7 +8699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>742</v>
       </c>
@@ -8694,8 +8713,24 @@
         <v>30</v>
       </c>
     </row>
+    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="B410" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="C410" s="4">
+        <v>50</v>
+      </c>
+      <c r="D410" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B413" s="18"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
@@ -8712,36 +8747,36 @@
       <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="5:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="5:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
     </row>
   </sheetData>

--- a/exames.xlsx
+++ b/exames.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\bigFarma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6909D-2301-4E14-A0CD-159E988148AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCD26C6-E725-4BC9-9618-457731742221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2517,10 +2517,10 @@
     <t>URI EAS</t>
   </si>
   <si>
-    <t>HOMÔNIMO FOLÍCULO ESTIMULANTE</t>
-  </si>
-  <si>
     <t>FSH</t>
+  </si>
+  <si>
+    <t>HORMÔNIO FOLÍCULO ESTIMULANTE</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2666,12 +2666,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2979,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D413"/>
+  <dimension ref="A1:M413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="M403" sqref="M403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3000,10 +3003,10 @@
       <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8587,7 +8590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>300</v>
       </c>
@@ -8601,7 +8604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>306</v>
       </c>
@@ -8615,7 +8618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>314</v>
       </c>
@@ -8628,8 +8631,9 @@
       <c r="D403" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="M403" s="19"/>
+    </row>
+    <row r="404" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>328</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>346</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>732</v>
       </c>
@@ -8671,7 +8675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>734</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>769</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>742</v>
       </c>
@@ -8713,12 +8717,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A410" s="17" t="s">
+    <row r="410" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A410" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="B410" s="16" t="s">
         <v>816</v>
-      </c>
-      <c r="B410" s="17" t="s">
-        <v>815</v>
       </c>
       <c r="C410" s="4">
         <v>50</v>
@@ -8727,8 +8731,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B413" s="18"/>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B413" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
